--- a/df.new.xlsx
+++ b/df.new.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L131"/>
+  <dimension ref="A1:O131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -418,6 +418,21 @@
           <t>WMS.s</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>F.Short.s</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>LVDD.s</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>EPSS.s</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -451,10 +466,19 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
         <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -489,10 +513,19 @@
         <v>1.7</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
         <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -527,10 +560,19 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -565,10 +607,19 @@
         <v>1.45</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -603,10 +654,19 @@
         <v>2.25</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -644,7 +704,16 @@
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -679,10 +748,19 @@
         <v>1.88</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -717,10 +795,19 @@
         <v>1</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -758,7 +845,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,7 +892,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -831,10 +936,19 @@
         <v>1.8</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -869,10 +983,19 @@
         <v>1.14</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -907,10 +1030,19 @@
         <v>1</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
         <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -945,10 +1077,19 @@
         <v>1</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -983,10 +1124,19 @@
         <v>2.33</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1021,9 +1171,18 @@
         <v>1</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
         <v>1</v>
       </c>
     </row>
@@ -1062,7 +1221,16 @@
         <v>1</v>
       </c>
       <c r="L18">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1097,10 +1265,19 @@
         <v>2</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1140,6 +1317,15 @@
       <c r="L20">
         <v>0</v>
       </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -1176,7 +1362,16 @@
         <v>1</v>
       </c>
       <c r="L21">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1214,7 +1409,16 @@
         <v>1</v>
       </c>
       <c r="L22">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1249,9 +1453,18 @@
         <v>1.38</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
         <v>1</v>
       </c>
     </row>
@@ -1287,10 +1500,19 @@
         <v>1.5</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L24">
         <v>0</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1325,9 +1547,18 @@
         <v>1</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>
@@ -1368,6 +1599,15 @@
       <c r="L26">
         <v>0</v>
       </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27">
@@ -1406,6 +1646,15 @@
       <c r="L27">
         <v>0</v>
       </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28">
@@ -1444,6 +1693,15 @@
       <c r="L28">
         <v>1</v>
       </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29">
@@ -1477,9 +1735,18 @@
         <v>1</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
         <v>0</v>
       </c>
     </row>
@@ -1515,9 +1782,18 @@
         <v>1</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
         <v>1</v>
       </c>
     </row>
@@ -1553,10 +1829,19 @@
         <v>1.56</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31">
         <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1596,6 +1881,15 @@
       <c r="L32">
         <v>0</v>
       </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33">
@@ -1632,6 +1926,15 @@
         <v>0</v>
       </c>
       <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
         <v>1</v>
       </c>
     </row>
@@ -1672,6 +1975,15 @@
       <c r="L34">
         <v>0</v>
       </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35">
@@ -1708,7 +2020,16 @@
         <v>0</v>
       </c>
       <c r="L35">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1748,6 +2069,15 @@
       <c r="L36">
         <v>1</v>
       </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37">
@@ -1781,9 +2111,18 @@
         <v>1.62</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
         <v>1</v>
       </c>
     </row>
@@ -1824,6 +2163,15 @@
       <c r="L38">
         <v>0</v>
       </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39">
@@ -1860,7 +2208,16 @@
         <v>1</v>
       </c>
       <c r="L39">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1898,7 +2255,16 @@
         <v>1</v>
       </c>
       <c r="L40">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1933,9 +2299,18 @@
         <v>1</v>
       </c>
       <c r="K41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
         <v>0</v>
       </c>
     </row>
@@ -1976,6 +2351,15 @@
       <c r="L42">
         <v>0</v>
       </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43">
@@ -2012,7 +2396,16 @@
         <v>1</v>
       </c>
       <c r="L43">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -2047,9 +2440,18 @@
         <v>1.3</v>
       </c>
       <c r="K44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
         <v>1</v>
       </c>
     </row>
@@ -2085,10 +2487,19 @@
         <v>1</v>
       </c>
       <c r="K45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45">
         <v>1</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -2126,7 +2537,16 @@
         <v>1</v>
       </c>
       <c r="L46">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2164,6 +2584,15 @@
         <v>1</v>
       </c>
       <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
         <v>1</v>
       </c>
     </row>
@@ -2199,10 +2628,19 @@
         <v>1.25</v>
       </c>
       <c r="K48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L48">
         <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2237,10 +2675,19 @@
         <v>1.31</v>
       </c>
       <c r="K49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L49">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2278,7 +2725,16 @@
         <v>1</v>
       </c>
       <c r="L50">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2313,10 +2769,19 @@
         <v>1.65</v>
       </c>
       <c r="K51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L51">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2351,10 +2816,19 @@
         <v>1.5</v>
       </c>
       <c r="K52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L52">
         <v>0</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2389,10 +2863,19 @@
         <v>1.38</v>
       </c>
       <c r="K53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L53">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2427,10 +2910,19 @@
         <v>1</v>
       </c>
       <c r="K54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L54">
         <v>1</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2465,10 +2957,19 @@
         <v>3</v>
       </c>
       <c r="K55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L55">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2508,6 +3009,15 @@
       <c r="L56">
         <v>1</v>
       </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57">
@@ -2544,6 +3054,15 @@
         <v>1</v>
       </c>
       <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
         <v>1</v>
       </c>
     </row>
@@ -2579,9 +3098,18 @@
         <v>1.37</v>
       </c>
       <c r="K58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
         <v>1</v>
       </c>
     </row>
@@ -2620,7 +3148,16 @@
         <v>1</v>
       </c>
       <c r="L59">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2660,6 +3197,15 @@
       <c r="L60">
         <v>1</v>
       </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61">
@@ -2693,10 +3239,19 @@
         <v>1.05</v>
       </c>
       <c r="K61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L61">
         <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2731,10 +3286,19 @@
         <v>1.39</v>
       </c>
       <c r="K62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L62">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2769,9 +3333,18 @@
         <v>1.18</v>
       </c>
       <c r="K63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63">
         <v>1</v>
       </c>
     </row>
@@ -2807,10 +3380,19 @@
         <v>1.37</v>
       </c>
       <c r="K64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L64">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2850,6 +3432,15 @@
       <c r="L65">
         <v>0</v>
       </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66">
@@ -2888,6 +3479,15 @@
       <c r="L66">
         <v>0</v>
       </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>1</v>
+      </c>
+      <c r="O66">
+        <v>1</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67">
@@ -2926,6 +3526,15 @@
       <c r="L67">
         <v>0</v>
       </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
+      </c>
+      <c r="O67">
+        <v>1</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68">
@@ -2964,6 +3573,15 @@
       <c r="L68">
         <v>0</v>
       </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69">
@@ -3000,7 +3618,16 @@
         <v>1</v>
       </c>
       <c r="L69">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>1</v>
+      </c>
+      <c r="N69">
+        <v>1</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -3035,9 +3662,18 @@
         <v>1.37</v>
       </c>
       <c r="K70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="O70">
         <v>1</v>
       </c>
     </row>
@@ -3073,10 +3709,19 @@
         <v>2.18</v>
       </c>
       <c r="K71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L71">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="O71">
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -3111,9 +3756,18 @@
         <v>1</v>
       </c>
       <c r="K72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>1</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
         <v>0</v>
       </c>
     </row>
@@ -3149,10 +3803,19 @@
         <v>1.67</v>
       </c>
       <c r="K73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L73">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -3187,10 +3850,19 @@
         <v>1.08</v>
       </c>
       <c r="K74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L74">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>1</v>
+      </c>
+      <c r="N74">
+        <v>1</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -3228,7 +3900,16 @@
         <v>0</v>
       </c>
       <c r="L75">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>1</v>
+      </c>
+      <c r="O75">
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3266,7 +3947,16 @@
         <v>0</v>
       </c>
       <c r="L76">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3304,7 +3994,16 @@
         <v>1</v>
       </c>
       <c r="L77">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+      <c r="N77">
+        <v>1</v>
+      </c>
+      <c r="O77">
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3339,10 +4038,19 @@
         <v>2.1</v>
       </c>
       <c r="K78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L78">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M78">
+        <v>1</v>
+      </c>
+      <c r="N78">
+        <v>1</v>
+      </c>
+      <c r="O78">
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -3382,6 +4090,15 @@
       <c r="L79">
         <v>1</v>
       </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80">
@@ -3420,6 +4137,15 @@
       <c r="L80">
         <v>0</v>
       </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+      <c r="N80">
+        <v>1</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81">
@@ -3456,6 +4182,15 @@
         <v>1</v>
       </c>
       <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>1</v>
+      </c>
+      <c r="O81">
         <v>1</v>
       </c>
     </row>
@@ -3494,7 +4229,16 @@
         <v>0</v>
       </c>
       <c r="L82">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82">
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -3529,9 +4273,18 @@
         <v>1</v>
       </c>
       <c r="K83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>1</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83">
         <v>0</v>
       </c>
     </row>
@@ -3567,10 +4320,19 @@
         <v>1.36</v>
       </c>
       <c r="K84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L84">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -3605,10 +4367,19 @@
         <v>2.33</v>
       </c>
       <c r="K85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L85">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>1</v>
+      </c>
+      <c r="O85">
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3648,6 +4419,15 @@
       <c r="L86">
         <v>0</v>
       </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>1</v>
+      </c>
+      <c r="O86">
+        <v>1</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87">
@@ -3681,10 +4461,19 @@
         <v>1.41</v>
       </c>
       <c r="K87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L87">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+      <c r="O87">
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3724,6 +4513,15 @@
       <c r="L88">
         <v>0</v>
       </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>1</v>
+      </c>
+      <c r="O88">
+        <v>1</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89">
@@ -3757,10 +4555,19 @@
         <v>1.83</v>
       </c>
       <c r="K89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L89">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3795,10 +4602,19 @@
         <v>1.04</v>
       </c>
       <c r="K90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L90">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -3836,6 +4652,15 @@
         <v>1</v>
       </c>
       <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <v>1</v>
+      </c>
+      <c r="O91">
         <v>1</v>
       </c>
     </row>
@@ -3876,6 +4701,15 @@
       <c r="L92">
         <v>1</v>
       </c>
+      <c r="M92">
+        <v>1</v>
+      </c>
+      <c r="N92">
+        <v>0</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93">
@@ -3909,9 +4743,18 @@
         <v>1</v>
       </c>
       <c r="K93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>1</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+      <c r="O93">
         <v>0</v>
       </c>
     </row>
@@ -3950,6 +4793,15 @@
         <v>0</v>
       </c>
       <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <v>1</v>
+      </c>
+      <c r="N94">
+        <v>1</v>
+      </c>
+      <c r="O94">
         <v>1</v>
       </c>
     </row>
@@ -3988,7 +4840,16 @@
         <v>1</v>
       </c>
       <c r="L95">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M95">
+        <v>1</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+      <c r="O95">
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -4023,10 +4884,19 @@
         <v>1.04</v>
       </c>
       <c r="K96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L96">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>1</v>
+      </c>
+      <c r="N96">
+        <v>0</v>
+      </c>
+      <c r="O96">
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -4061,10 +4931,19 @@
         <v>1.5</v>
       </c>
       <c r="K97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L97">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M97">
+        <v>1</v>
+      </c>
+      <c r="N97">
+        <v>0</v>
+      </c>
+      <c r="O97">
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -4102,7 +4981,16 @@
         <v>1</v>
       </c>
       <c r="L98">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <v>1</v>
+      </c>
+      <c r="O98">
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -4137,10 +5025,19 @@
         <v>2.01</v>
       </c>
       <c r="K99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L99">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <v>1</v>
+      </c>
+      <c r="O99">
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -4180,6 +5077,15 @@
       <c r="L100">
         <v>0</v>
       </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <v>0</v>
+      </c>
+      <c r="O100">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101">
@@ -4216,7 +5122,16 @@
         <v>1</v>
       </c>
       <c r="L101">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>1</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+      <c r="O101">
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -4256,6 +5171,15 @@
       <c r="L102">
         <v>0</v>
       </c>
+      <c r="M102">
+        <v>1</v>
+      </c>
+      <c r="N102">
+        <v>0</v>
+      </c>
+      <c r="O102">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103">
@@ -4289,10 +5213,19 @@
         <v>1</v>
       </c>
       <c r="K103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L103">
         <v>0</v>
+      </c>
+      <c r="M103">
+        <v>1</v>
+      </c>
+      <c r="N103">
+        <v>1</v>
+      </c>
+      <c r="O103">
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -4330,7 +5263,16 @@
         <v>1</v>
       </c>
       <c r="L104">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M104">
+        <v>1</v>
+      </c>
+      <c r="N104">
+        <v>0</v>
+      </c>
+      <c r="O104">
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -4365,9 +5307,18 @@
         <v>1.5</v>
       </c>
       <c r="K105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>1</v>
+      </c>
+      <c r="O105">
         <v>1</v>
       </c>
     </row>
@@ -4403,9 +5354,18 @@
         <v>1</v>
       </c>
       <c r="K106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106">
+        <v>1</v>
+      </c>
+      <c r="N106">
+        <v>0</v>
+      </c>
+      <c r="O106">
         <v>0</v>
       </c>
     </row>
@@ -4441,10 +5401,19 @@
         <v>1.23</v>
       </c>
       <c r="K107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L107">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M107">
+        <v>0</v>
+      </c>
+      <c r="N107">
+        <v>0</v>
+      </c>
+      <c r="O107">
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -4479,9 +5448,18 @@
         <v>1.4</v>
       </c>
       <c r="K108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L108">
+        <v>1</v>
+      </c>
+      <c r="M108">
+        <v>1</v>
+      </c>
+      <c r="N108">
+        <v>1</v>
+      </c>
+      <c r="O108">
         <v>1</v>
       </c>
     </row>
@@ -4517,10 +5495,19 @@
         <v>1</v>
       </c>
       <c r="K109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L109">
         <v>1</v>
+      </c>
+      <c r="M109">
+        <v>1</v>
+      </c>
+      <c r="N109">
+        <v>0</v>
+      </c>
+      <c r="O109">
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -4555,10 +5542,19 @@
         <v>1</v>
       </c>
       <c r="K110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L110">
         <v>0</v>
+      </c>
+      <c r="M110">
+        <v>1</v>
+      </c>
+      <c r="N110">
+        <v>0</v>
+      </c>
+      <c r="O110">
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -4596,7 +5592,16 @@
         <v>1</v>
       </c>
       <c r="L111">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M111">
+        <v>1</v>
+      </c>
+      <c r="N111">
+        <v>0</v>
+      </c>
+      <c r="O111">
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -4631,10 +5636,19 @@
         <v>1</v>
       </c>
       <c r="K112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L112">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M112">
+        <v>1</v>
+      </c>
+      <c r="N112">
+        <v>0</v>
+      </c>
+      <c r="O112">
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -4669,10 +5683,19 @@
         <v>1</v>
       </c>
       <c r="K113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L113">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M113">
+        <v>1</v>
+      </c>
+      <c r="N113">
+        <v>1</v>
+      </c>
+      <c r="O113">
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -4707,9 +5730,18 @@
         <v>1</v>
       </c>
       <c r="K114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L114">
+        <v>0</v>
+      </c>
+      <c r="M114">
+        <v>1</v>
+      </c>
+      <c r="N114">
+        <v>1</v>
+      </c>
+      <c r="O114">
         <v>0</v>
       </c>
     </row>
@@ -4745,10 +5777,19 @@
         <v>1.95</v>
       </c>
       <c r="K115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L115">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115">
+        <v>1</v>
+      </c>
+      <c r="O115">
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -4788,6 +5829,15 @@
       <c r="L116">
         <v>0</v>
       </c>
+      <c r="M116">
+        <v>1</v>
+      </c>
+      <c r="N116">
+        <v>0</v>
+      </c>
+      <c r="O116">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117">
@@ -4826,6 +5876,15 @@
       <c r="L117">
         <v>0</v>
       </c>
+      <c r="M117">
+        <v>1</v>
+      </c>
+      <c r="N117">
+        <v>1</v>
+      </c>
+      <c r="O117">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118">
@@ -4859,10 +5918,19 @@
         <v>1.95</v>
       </c>
       <c r="K118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L118">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M118">
+        <v>1</v>
+      </c>
+      <c r="N118">
+        <v>1</v>
+      </c>
+      <c r="O118">
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -4900,6 +5968,15 @@
         <v>1</v>
       </c>
       <c r="L119">
+        <v>0</v>
+      </c>
+      <c r="M119">
+        <v>1</v>
+      </c>
+      <c r="N119">
+        <v>1</v>
+      </c>
+      <c r="O119">
         <v>1</v>
       </c>
     </row>
@@ -4940,6 +6017,15 @@
       <c r="L120">
         <v>1</v>
       </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <v>0</v>
+      </c>
+      <c r="O120">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121">
@@ -4973,10 +6059,19 @@
         <v>1.38</v>
       </c>
       <c r="K121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L121">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121">
+        <v>0</v>
+      </c>
+      <c r="O121">
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -5011,9 +6106,18 @@
         <v>1.38</v>
       </c>
       <c r="K122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="N122">
+        <v>0</v>
+      </c>
+      <c r="O122">
         <v>0</v>
       </c>
     </row>
@@ -5049,10 +6153,19 @@
         <v>1.73</v>
       </c>
       <c r="K123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L123">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="N123">
+        <v>1</v>
+      </c>
+      <c r="O123">
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -5092,6 +6205,15 @@
       <c r="L124">
         <v>0</v>
       </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="N124">
+        <v>0</v>
+      </c>
+      <c r="O124">
+        <v>1</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125">
@@ -5128,7 +6250,16 @@
         <v>1</v>
       </c>
       <c r="L125">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125">
+        <v>1</v>
+      </c>
+      <c r="O125">
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -5163,9 +6294,18 @@
         <v>1.27</v>
       </c>
       <c r="K126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L126">
+        <v>1</v>
+      </c>
+      <c r="M126">
+        <v>0</v>
+      </c>
+      <c r="N126">
+        <v>1</v>
+      </c>
+      <c r="O126">
         <v>1</v>
       </c>
     </row>
@@ -5204,6 +6344,15 @@
         <v>1</v>
       </c>
       <c r="L127">
+        <v>0</v>
+      </c>
+      <c r="M127">
+        <v>1</v>
+      </c>
+      <c r="N127">
+        <v>0</v>
+      </c>
+      <c r="O127">
         <v>1</v>
       </c>
     </row>
@@ -5244,6 +6393,15 @@
       <c r="L128">
         <v>0</v>
       </c>
+      <c r="M128">
+        <v>1</v>
+      </c>
+      <c r="N128">
+        <v>1</v>
+      </c>
+      <c r="O128">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129">
@@ -5282,6 +6440,15 @@
       <c r="L129">
         <v>1</v>
       </c>
+      <c r="M129">
+        <v>1</v>
+      </c>
+      <c r="N129">
+        <v>1</v>
+      </c>
+      <c r="O129">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130">
@@ -5315,10 +6482,19 @@
         <v>1.36</v>
       </c>
       <c r="K130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L130">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M130">
+        <v>0</v>
+      </c>
+      <c r="N130">
+        <v>0</v>
+      </c>
+      <c r="O130">
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -5353,10 +6529,19 @@
         <v>1.41</v>
       </c>
       <c r="K131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L131">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M131">
+        <v>0</v>
+      </c>
+      <c r="N131">
+        <v>0</v>
+      </c>
+      <c r="O131">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
